--- a/download/test.xlsx
+++ b/download/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>姓名</t>
   </si>
@@ -76,7 +76,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test 报销</t>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test 3报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test 4报销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -471,10 +479,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>20150205</v>
+        <v>20150905</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -485,6 +493,20 @@
       <c r="O2">
         <f>SUM(D2:N2)</f>
         <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>20150905</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
